--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="21600" windowHeight="10080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="21600" windowHeight="10080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
   <si>
     <t>type</t>
   </si>
@@ -484,6 +484,15 @@
   </si>
   <si>
     <t>HEALTHCENTERCLINIC</t>
+  </si>
+  <si>
+    <t>processedByMirth</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1714,11 +1723,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2078,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -2122,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>133</v>
       </c>
@@ -2171,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>135</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>137</v>
       </c>
@@ -2202,7 +2211,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -2243,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>133</v>
       </c>
@@ -2260,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>95</v>
       </c>
@@ -2277,7 +2286,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J28" s="3"/>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.2">
@@ -2338,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="21600" windowHeight="10080" tabRatio="500"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="158">
   <si>
     <t>type</t>
   </si>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>processed</t>
-  </si>
-  <si>
-    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1724,10 +1721,10 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2087,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -2109,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -2131,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
@@ -2153,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>133</v>
       </c>
@@ -2180,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>135</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>137</v>
       </c>
@@ -2211,7 +2208,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -2252,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>133</v>
       </c>
@@ -2269,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>95</v>
       </c>
@@ -2286,24 +2283,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="D27" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M27" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J28" s="3"/>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -1721,10 +1721,10 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1877,6 +1877,9 @@
       <c r="J5" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="M5" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1894,6 +1897,9 @@
       <c r="J6" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="M6" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1911,6 +1917,9 @@
       <c r="J7" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="M7" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1928,6 +1937,9 @@
       <c r="J8" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="M8" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1945,6 +1957,9 @@
       <c r="J9" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="M9" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1959,7 +1974,9 @@
       <c r="E10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -2102,9 +2119,6 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -1721,10 +1721,10 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1861,18 +1861,18 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J5" s="4" t="b">
         <v>1</v>
@@ -1881,18 +1881,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="4" t="b">
         <v>1</v>
@@ -1901,18 +1901,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J7" s="4" t="b">
         <v>1</v>
@@ -1921,18 +1921,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J8" s="4" t="b">
         <v>1</v>

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="163">
   <si>
     <t>type</t>
   </si>
@@ -490,6 +490,21 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>OpenHDS preloaded info</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>openhds</t>
   </si>
 </sst>
 </file>
@@ -590,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +615,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +987,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1030,6 +1051,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1718,13 +1745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1861,38 +1888,42 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6" s="4" t="b">
         <v>1</v>
@@ -1901,18 +1932,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J7" s="4" t="b">
         <v>1</v>
@@ -1926,34 +1957,34 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="J9" s="4" t="b">
         <v>1</v>
       </c>
@@ -1961,121 +1992,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="4" t="b">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:18" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>136</v>
+        <v>49</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="J15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2084,57 +2094,66 @@
         <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="M16" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>108</v>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
+      <c r="J17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>109</v>
+        <v>56</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2143,69 +2162,61 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="J19" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>133</v>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="J20" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2213,27 +2224,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="E22" s="10"/>
-      <c r="G22" s="2"/>
+    <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J22" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>129</v>
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2242,86 +2274,108 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="A24" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="E24" s="10"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="J24" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>131</v>
-      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="J25" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>132</v>
-      </c>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="J26" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="M27" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J28" s="3"/>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J37" s="3"/>
+      <c r="M29" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J30" s="3"/>
     </row>
     <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" s="3"/>
@@ -2332,11 +2386,11 @@
     <row r="40" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J40" s="3"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J58" s="3"/>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J59" s="3"/>
@@ -2348,22 +2402,28 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J67" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J69" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="165">
   <si>
     <t>type</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>openhds</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat(${motherId},'_PREG_',${fieldWorkerId})</t>
   </si>
 </sst>
 </file>
@@ -2955,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2968,7 +2974,7 @@
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -2978,8 +2984,11 @@
       <c r="C1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
@@ -2988,6 +2997,9 @@
       </c>
       <c r="C2" t="s">
         <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="170">
   <si>
     <t>type</t>
   </si>
@@ -511,12 +511,30 @@
   </si>
   <si>
     <t>concat(${motherId},'_PREG_',${fieldWorkerId})</t>
+  </si>
+  <si>
+    <t>earliestDate</t>
+  </si>
+  <si>
+    <t>Earliest outcome date</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>. &lt;= today() and &gt;${earliestDate}</t>
+  </si>
+  <si>
+    <t>Date of birth can not be in the future or before the earliest date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -993,7 +1011,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1063,6 +1081,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1751,13 +1772,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1778,7 +1799,7 @@
     <col min="19" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1833,8 +1854,11 @@
       <c r="R1" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1854,7 +1878,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1874,7 +1898,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1894,62 +1918,63 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="M5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="27">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B6" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="C6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-    </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7" s="4" t="b">
         <v>1</v>
@@ -1958,18 +1983,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J8" s="4" t="b">
         <v>1</v>
@@ -1978,163 +2003,164 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="J10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B11" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="H13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="J14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R15" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="J16" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="J16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>68</v>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2146,83 +2172,86 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>56</v>
+      <c r="D18" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="J18" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="M18" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
+      <c r="B19" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
+      <c r="J19" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>33</v>
+      <c r="B20" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>109</v>
+        <v>57</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="J20" s="5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>87</v>
+      <c r="A21" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2230,98 +2259,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="J22" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="J23" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="E24" s="10"/>
+    <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
+      <c r="J24" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="A25" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="E25" s="10"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="J25" s="5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>130</v>
+      <c r="E26" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2329,62 +2358,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="J27" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="J28" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J28" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="J29" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="M29" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J30" s="3"/>
-    </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J38" s="3"/>
+      <c r="M30" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J31" s="3"/>
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J39" s="3"/>
@@ -2398,23 +2446,22 @@
     <row r="42" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J42" s="3"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -2426,10 +2473,14 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J69" s="3"/>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J68" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J70" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -522,10 +522,10 @@
     <t>default</t>
   </si>
   <si>
-    <t>. &lt;= today() and &gt;${earliestDate}</t>
-  </si>
-  <si>
     <t>Date of birth can not be in the future or before the earliest date</t>
+  </si>
+  <si>
+    <t>. &lt;= today() and . &gt;${earliestDate}</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1778,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2086,10 +2086,10 @@
         <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="172">
   <si>
     <t>type</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>. &lt;= today() and . &gt;${earliestDate}</t>
+  </si>
+  <si>
+    <t>2014-06-01</t>
+  </si>
+  <si>
+    <t>no-calendar</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1089,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1775,10 +1781,10 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1932,11 +1938,14 @@
         <v>166</v>
       </c>
       <c r="I5" s="4"/>
+      <c r="K5" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="S5" s="27">
-        <v>41791</v>
+      <c r="S5" s="27" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/pregnancy_outcome.xlsx
+++ b/xforms/xlsforms/pregnancy_outcome.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="171">
   <si>
     <t>type</t>
   </si>
@@ -526,9 +526,6 @@
   </si>
   <si>
     <t>. &lt;= today() and . &gt;${earliestDate}</t>
-  </si>
-  <si>
-    <t>2014-06-01</t>
   </si>
   <si>
     <t>no-calendar</t>
@@ -1784,7 +1781,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1939,14 +1936,12 @@
       </c>
       <c r="I5" s="4"/>
       <c r="K5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="S5" s="27" t="s">
-        <v>170</v>
-      </c>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
